--- a/xcustomize/JIRA-494_ALS/ALS_DB_work.xlsx
+++ b/xcustomize/JIRA-494_ALS/ALS_DB_work.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\meta\ALS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{465026ED-130C-4F46-94F1-22BDC6B1EF45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ED76A85-B2B5-4F38-82D4-C686E8F44E50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FB39E5FF-445C-4B05-9668-E97E4CFF395E}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>Tab</t>
   </si>
@@ -80,14 +80,7 @@
     <t>Fields</t>
   </si>
   <si>
-    <t xml:space="preserve">If Forms are downloaded: FORM_OID 
-If CDEs are downloaded: UserID + "_CDECART" </t>
-  </si>
-  <si>
     <t>Questions</t>
-  </si>
-  <si>
-    <t>Is it hardcoded : FORM_OID ,"_CDECART" ?</t>
   </si>
   <si>
     <t>Ordinal</t>
@@ -102,9 +95,6 @@
     <t>1.caDSR Form public id  and Version is used to populate this column for the first row in the form. "PID"+caDSR Form Public ID+"_V"+form major version replace "." with underscore, + Form minor version,  defalut version "0"
 2. CDE Long Name+“PID”+PID#_”V”+MajorVersion#_+MinorVersion#
 The total length of the field name must not exceed 200 characters."</t>
-  </si>
-  <si>
-    <t>Long name can be up to 255</t>
   </si>
   <si>
     <t>ALS_DraftFieldName</t>
@@ -125,6 +115,57 @@
   ~ Replace “-” with “_”
   ~ Replace “’” with “”
 </t>
+  </si>
+  <si>
+    <t>Long name can be up to 255. How to treat then concatination?</t>
+  </si>
+  <si>
+    <t>What is the difference between FormOID and FORM_OID?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use the caDSR Form Long Name that the Questions are associated with, in ALL CAPS; Should be the same name a in the OID column on Forms Tab. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">If CDEs (not forms) are being imported, then "Field = CDE". Correct?
+</t>
+  </si>
+  <si>
+    <t>FieldOID</t>
+  </si>
+  <si>
+    <t>If Forms are downloaded: FORM_OID 
+If CDEs are downloaded: UserID + "_CDECART"
+One row for each question on the form UNLESS the Question is a "all that apply" type Question.
+For questions with "all" in instruction:
+Create the first field for the question with FieldOID as below, + "_An" where n a number starting with "1" + _LBLAnn" where nn = n e.g. "PT_RACE_CD_A1_LBLA1" 
+Create the field for each value in the Question with FieldOID  = same rule as below + "_An" where "n" is number starting with 1 for the first value, incremented by 1 for each value. E.g. If there are 5 values, _A1, _A2, _A3, _A4, _A5
+e.g. PT_RACE_CD_A1, PT_RACE_CD_A2, PT_RACE_CD_A3, PT_RACE_CD_A4, PT_RACE_CD_A5
+FieldOID Must be unique within the all the form.
+Limited to 30 characters.
+Use the caDSR CDE Short Name that is linked to the Question. Use the Question-CDE link to retreive the CDE short name. 
+ If no link to a CDE then default is UserName + "_" + integer (start with 1). 
+When Questions are used multiple times on a caDSR form, must create these questions as unique fields by adding a sequence number to the  CDE Short Name e.g. “RACE_01”, to ensure uniqueness in Rave.This ensures uniqueness Field OIDs 
+Replace spaces and other characters:
+  ~ Only underscore characters are permitted
+  ~ Replace space characters with “_”
+  ~ Replace “.” with “_”
+  ~ Replace “/” with “_”
+  ~ Replace “(” with “_”
+  ~ Replace “)” with “_”
+  ~ Replace “-” with “_”
+  ~ Replace “’” with “”</t>
+  </si>
+  <si>
+    <t>DataFormat</t>
+  </si>
+  <si>
+    <t>DataDictionaryName</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>FORM_OID or Question ID?</t>
   </si>
 </sst>
 </file>
@@ -500,16 +541,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3ADFB94-266A-4E66-931E-D4887B14E513}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="25.90625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="16.7265625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="20.7265625" style="3" customWidth="1"/>
     <col min="3" max="3" width="62" style="6" customWidth="1"/>
     <col min="4" max="4" width="37" style="6" customWidth="1"/>
     <col min="5" max="5" width="30.26953125" style="6" customWidth="1"/>
@@ -527,7 +568,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>3</v>
@@ -553,7 +594,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
@@ -561,40 +602,70 @@
         <v>10</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="B4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="B5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="B4" s="3" t="s">
+    <row r="6" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+      <c r="B6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C6" s="6" t="s">
         <v>16</v>
       </c>
+      <c r="D6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" ht="87" x14ac:dyDescent="0.35">
-      <c r="B5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="6" t="s">
+    <row r="7" spans="1:6" ht="203" x14ac:dyDescent="0.35">
+      <c r="B7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="C7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>20</v>
+      <c r="D7" s="6" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="203" x14ac:dyDescent="0.35">
-      <c r="B6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>22</v>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B9" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/xcustomize/JIRA-494_ALS/ALS_DB_work.xlsx
+++ b/xcustomize/JIRA-494_ALS/ALS_DB_work.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\meta\ALS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ED76A85-B2B5-4F38-82D4-C686E8F44E50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B45E67-8AC3-4D52-ACCD-B9D5BFCA66DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FB39E5FF-445C-4B05-9668-E97E4CFF395E}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
   <si>
     <t>Tab</t>
   </si>
@@ -133,8 +133,63 @@
     <t>FieldOID</t>
   </si>
   <si>
-    <t>If Forms are downloaded: FORM_OID 
+    <t>DataFormat</t>
+  </si>
+  <si>
+    <t>DataDictionaryName</t>
+  </si>
+  <si>
+    <t>ControlType</t>
+  </si>
+  <si>
+    <t>For Questions with "all" in the Instuction:
+Create the first field with ControlType ="Text"
+Create the field for each Value on the Form  ControlType= "CheckBox".
+For Enumerated Question or Enumerated CDE ControlType = "DropDownList"</t>
+  </si>
+  <si>
+    <t>For questions with "all" in the instruction, there is no entry in this column. 
+Use the caDSR CDE Value Domain Long Name truncated to &lt;32 characters plus VD Public ID details:  
+Truncated VD Long Name+“PID”+VDPublicID_”V”+MajorVersion#_+MinorVersion# + "F"
+Append an integer in front of "F": 
+If VD name ends in a number, such as "Score 5", the number corresponds to to the number of times a data dictionary is reused.  IF the dictionary is used only once, "0F". Rave requires a unique name for data dictionaries for the protocol.
+Truncate the VD Long Name to &lt;32, and append the letter "F" behind any Data dictionary name that ends with a number; prepend an integer in front of the "F" for corresponding to the number of times the dictionary is reused, if tje VD is only in the protocol once, this integer will be "1".  CDUS_RACE_COD_PID2453600_V6_0_1F
+Replace spaces and other characters:
+  ~ Only underscore characters are permitted
+  ~ Replace space characters with “_”
+  ~ Replace “.” with “_”
+  ~ Replace “/” with “_”
+  ~ Replace “(” with “_”
+  ~ Replace “)” with “_”
+  ~ Replace “-” with “_”
+  ~ Replace “’” with “”</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If Forms are downloaded: FORM_OID 
 If CDEs are downloaded: UserID + "_CDECART"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Use the caDSR Short Name of the CDE  If no link to a CDE then this column is  null for this row.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 One row for each question on the form UNLESS the Question is a "all that apply" type Question.
 For questions with "all" in instruction:
 Create the first field for the question with FieldOID as below, + "_An" where n a number starting with "1" + _LBLAnn" where nn = n e.g. "PT_RACE_CD_A1_LBLA1" 
@@ -154,25 +209,46 @@
   ~ Replace “)” with “_”
   ~ Replace “-” with “_”
   ~ Replace “’” with “”</t>
-  </si>
-  <si>
-    <t>DataFormat</t>
-  </si>
-  <si>
-    <t>DataDictionaryName</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>FORM_OID or Question ID?</t>
+    </r>
+  </si>
+  <si>
+    <t>What to do if length of CD short name = 30 char?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For Questions with "all" in the instruction:
+Create the first field with null DataFormat 
+Create the field for each Value in the Question  DataFormat=1 </t>
+  </si>
+  <si>
+    <t>VD Format: What are conversion rules?
+As I see if VD Display Format is null  then used '$'+ value of VAL_DOM_MAX_CHAR. What is DataFormat=1 ?</t>
+  </si>
+  <si>
+    <t>PreText</t>
+  </si>
+  <si>
+    <t>For Questions with "all" in the Instuction:
+Create the first field with PreText =Form Question Text
+Create the field for each Value on the Form  PreText = Value  e.g. "01"  
+Use the Form Question Text, if downloading CDEs, used CDE Preferred Question Text</t>
+  </si>
+  <si>
+    <t>DefaultValue</t>
+  </si>
+  <si>
+    <t>FixedUnit</t>
+  </si>
+  <si>
+    <t>if the CDE Value Domain specifies display format, then this format is imported as the FixedUnit.  If no unit of measure display is specified for the CDE VD, then this is blank.
+For Questions with "all" in the Instuction:
+null FixedUnit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,6 +260,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -541,10 +625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3ADFB94-266A-4E66-931E-D4887B14E513}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -578,7 +662,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="145" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -616,10 +700,10 @@
         <v>24</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="29" x14ac:dyDescent="0.35">
@@ -655,17 +739,55 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="B8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="B9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C9" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B9" s="3" t="s">
-        <v>27</v>
+    <row r="11" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+      <c r="B11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/xcustomize/JIRA-494_ALS/ALS_DB_work.xlsx
+++ b/xcustomize/JIRA-494_ALS/ALS_DB_work.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\meta\ALS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B45E67-8AC3-4D52-ACCD-B9D5BFCA66DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54686A54-ECBE-4450-8D46-344F96F09A57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FB39E5FF-445C-4B05-9668-E97E4CFF395E}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="58">
   <si>
     <t>Tab</t>
   </si>
@@ -137,6 +137,9 @@
   </si>
   <si>
     <t>DataDictionaryName</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
   <si>
     <t>ControlType</t>
@@ -243,12 +246,76 @@
 For Questions with "all" in the Instuction:
 null FixedUnit</t>
   </si>
+  <si>
+    <t>UMO_ID?</t>
+  </si>
+  <si>
+    <t>Same values as in  Column DraftFieldName, caDSR Form public id  and Version is used to populate this column for the first row in the form. "PID"+caDSR Form Public ID+"_V"+form major version replace + "_" + Form minor version,  defalut version "0"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IsRequired	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QueryFutureDate	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IsVisible	</t>
+  </si>
+  <si>
+    <t>IsTranslationRequired</t>
+  </si>
+  <si>
+    <t>DataDictionary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For questions with "all" in instruction:
+Create a DataDictionaryName for the CDE Value Domain using the same rules to construct the name as on Fields Tab for DataDictionaryName 
+Create one entry on this tab for each enumerated CDEs in the form or in the CDE download. The name of the DataDictionary follows the same rules as the DataDictionaryName on the Fields tab. </t>
+  </si>
+  <si>
+    <t>What to do if no CDE for the question in FORM?</t>
+  </si>
+  <si>
+    <t>DataDictionaryEntries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For each Question that has valid values, or each enumerated CDE, the DataDictionaryName should be the same name/rules as on the Fields tab for "DataDictionaryName". 
+For questions with "All" in the Instruction create DataDictionaryEntries for each value in the question using the same rules as other types of questions.  
+IF the CDE has 5 Permissible Values, or if the Question has 5 Valid Values, there will be 5 rows all with the same DataDictionaryName.
+</t>
+  </si>
+  <si>
+    <t>Use the Valid Value if a Question on a form, CDE Value Domain PV if downloading CDEs.
+Transform the PV values:  
+  1) Replace commas with “@@”
+  2) Replace semicolons with “##”</t>
+  </si>
+  <si>
+    <t>CodedData</t>
+  </si>
+  <si>
+    <t>Question Valid Value Meaning
+First value in the enumeration should  always start with 1, increment by 1 for each Value/Value meaning. If there are 5 VVs, PVs if CDE, Ordinal would be 1,2,3,4,5</t>
+  </si>
+  <si>
+    <t>Parameter passed in from front end, will determine if this columm is the Question Valid Value ( CDE VD Permissible Value bit do not replace commas and semicolons), OR the Question Valid Value Meaning, or if CDE Value Domain Permissible Value Meaning Long Name</t>
+  </si>
+  <si>
+    <t>UserDataString</t>
+  </si>
+  <si>
+    <t>Default to “FALSE” 
+But Check with Ginger: If UserDataString or PV Meaning  contains “Specify” set  to TRUE/or if question text contains “Specify”</t>
+  </si>
+  <si>
+    <t>Specify</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -268,6 +335,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -293,7 +368,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -310,6 +385,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -625,10 +703,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3ADFB94-266A-4E66-931E-D4887B14E513}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -662,7 +740,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="145" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -679,7 +757,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -700,10 +778,10 @@
         <v>24</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="29" x14ac:dyDescent="0.35">
@@ -744,10 +822,10 @@
         <v>25</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
@@ -755,39 +833,122 @@
         <v>26</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B10" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="87" x14ac:dyDescent="0.35">
       <c r="B11" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B12" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+        <v>39</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="B13" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>38</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B14" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B15" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B16" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B17" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+      <c r="B25" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="B26" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="B27" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B28" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/xcustomize/JIRA-494_ALS/ALS_DB_work.xlsx
+++ b/xcustomize/JIRA-494_ALS/ALS_DB_work.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\meta\ALS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54686A54-ECBE-4450-8D46-344F96F09A57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{719D207B-A67F-4A3B-9989-6BC753DF43BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FB39E5FF-445C-4B05-9668-E97E4CFF395E}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="77">
   <si>
     <t>Tab</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>DraftFieldName</t>
+  </si>
+  <si>
+    <t>What is for CDE?</t>
   </si>
   <si>
     <t>1.caDSR Form public id  and Version is used to populate this column for the first row in the form. "PID"+caDSR Form Public ID+"_V"+form major version replace "." with underscore, + Form minor version,  defalut version "0"
@@ -310,15 +313,140 @@
   <si>
     <t>Specify</t>
   </si>
+  <si>
+    <t>CRFDraft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DraftName	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DeleteExisting	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ProjectName	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ProjectType	</t>
+  </si>
+  <si>
+    <t>PrimaryFormOID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Required field
+Default to User ID Name and Date but user can change in the popup at download in OneData: PopUpField Name "Rave CRF Draft Name"  </t>
+  </si>
+  <si>
+    <t>Hardcoded to "FALSE"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Required field
+Default to User ID Name and Date but user can change in the popup at download in OneData: PopUpField Name "Rave Target Project/Global Library"  </t>
+  </si>
+  <si>
+    <t>Required
+Default to the same value as populated in ProjectName Column E</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Repace characters with UPPERCASE characters </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Replace spaces and other characters:
+  ~ Only underscore characters are permitted
+  ~ Replace space characters with “_”
+  ~ Replace “.” with “_”
+  ~ Replace “/” with “_”
+  ~ Replace “(” with “_”
+  ~ Replace “)” with “_”
+  ~ Replace “-” with “_”
+  ~ Replace “’” with “”</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> Column D? </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Looks different on Denise excel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>SignaturePrompt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ConfirmationMessage	</t>
+  </si>
+  <si>
+    <t>What is the source?</t>
+  </si>
+  <si>
+    <t>SyncOIDOriginIsVersion</t>
+  </si>
+  <si>
+    <t>SyncOIDProjectType</t>
+  </si>
+  <si>
+    <t>What is the source? Why only 1 Form if 2 were loaded?</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -368,26 +496,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -703,10 +837,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3ADFB94-266A-4E66-931E-D4887B14E513}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -739,216 +873,346 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="145" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="4"/>
+      <c r="B3" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:6" s="1" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A4" s="4"/>
+      <c r="B4" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:6" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="4"/>
+      <c r="B5" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="1:6" s="1" customFormat="1" ht="145" x14ac:dyDescent="0.35">
+      <c r="A6" s="4"/>
+      <c r="B6" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="4"/>
+      <c r="B7" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="4"/>
+      <c r="B8" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="1:6" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A9" s="4"/>
+      <c r="B9" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="4"/>
+      <c r="B10" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="1:6" ht="145" x14ac:dyDescent="0.35">
+      <c r="A14" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B14" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C14" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="7" t="s">
+    <row r="15" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C15" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="B16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="B17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="87" x14ac:dyDescent="0.35">
+      <c r="B18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="203" x14ac:dyDescent="0.35">
+      <c r="B19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="B4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="6" t="s">
+    </row>
+    <row r="20" spans="2:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="B20" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="B21" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="B5" s="3" t="s">
+    </row>
+    <row r="22" spans="2:5" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B22" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="87" x14ac:dyDescent="0.35">
+      <c r="B23" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B24" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="B25" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B26" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B27" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B28" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B29" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A34" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+      <c r="B37" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="B38" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="87" x14ac:dyDescent="0.35">
-      <c r="B6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="203" x14ac:dyDescent="0.35">
-      <c r="B7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="58" x14ac:dyDescent="0.35">
-      <c r="B8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="B9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="B10" s="3" t="s">
+      <c r="C38" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="B39" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B40" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D40" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="87" x14ac:dyDescent="0.35">
-      <c r="B11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="B12" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="58" x14ac:dyDescent="0.35">
-      <c r="B13" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B14" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B15" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B16" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B17" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="87" x14ac:dyDescent="0.35">
-      <c r="B25" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="B26" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="B27" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B28" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
